--- a/Code/Results/Cases/Case_3_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_126/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9931926654899712</v>
+        <v>0.8158781678468188</v>
       </c>
       <c r="C2">
-        <v>0.1211561920838164</v>
+        <v>0.08763917035813051</v>
       </c>
       <c r="D2">
-        <v>0.029385921279518</v>
+        <v>0.02341868214435827</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.024867963927136</v>
+        <v>5.316304375184131</v>
       </c>
       <c r="G2">
-        <v>0.0008466750594383704</v>
+        <v>0.002598057009659271</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4220152869414875</v>
+        <v>0.3584031481197911</v>
       </c>
       <c r="K2">
-        <v>1.021291323431086</v>
+        <v>0.825037446692221</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8640517900676343</v>
+        <v>0.7936140968020027</v>
       </c>
       <c r="C3">
-        <v>0.1034672680711139</v>
+        <v>0.08557691794138123</v>
       </c>
       <c r="D3">
-        <v>0.02415563936059151</v>
+        <v>0.0252304738944904</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.329395600333129</v>
+        <v>5.119249388615117</v>
       </c>
       <c r="G3">
-        <v>0.0008556658414818356</v>
+        <v>0.002603210553398778</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3721452325651455</v>
+        <v>0.3480904429340086</v>
       </c>
       <c r="K3">
-        <v>0.8851919471118777</v>
+        <v>0.8031537122003272</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7869527450353644</v>
+        <v>0.7807130965191504</v>
       </c>
       <c r="C4">
-        <v>0.09299303398597658</v>
+        <v>0.08443572359462337</v>
       </c>
       <c r="D4">
-        <v>0.02113989012496198</v>
+        <v>0.026444044525892</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.910552682106129</v>
+        <v>4.998979400218985</v>
       </c>
       <c r="G4">
-        <v>0.000861315954304011</v>
+        <v>0.002606537255431958</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3423600018737005</v>
+        <v>0.3419842447547836</v>
       </c>
       <c r="K4">
-        <v>0.8040698771325765</v>
+        <v>0.7905658300099105</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7560233745213907</v>
+        <v>0.7756486923273656</v>
       </c>
       <c r="C5">
-        <v>0.08880980637567859</v>
+        <v>0.08400194103980141</v>
       </c>
       <c r="D5">
-        <v>0.01995300834570735</v>
+        <v>0.02696381442510187</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.741646661857175</v>
+        <v>4.95014523396469</v>
       </c>
       <c r="G5">
-        <v>0.0008636530735783854</v>
+        <v>0.00260793389967741</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3304077307269182</v>
+        <v>0.3395523947929178</v>
       </c>
       <c r="K5">
-        <v>0.7715553758477256</v>
+        <v>0.7856488725406052</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7509153954246983</v>
+        <v>0.7748193836757764</v>
       </c>
       <c r="C6">
-        <v>0.08811999148586835</v>
+        <v>0.08393179486284907</v>
       </c>
       <c r="D6">
-        <v>0.01975827196853963</v>
+        <v>0.02705163988167136</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.713699451911879</v>
+        <v>4.942046896757461</v>
       </c>
       <c r="G6">
-        <v>0.0008640432992658052</v>
+        <v>0.002608168290938462</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3284335905534874</v>
+        <v>0.3391519898444955</v>
       </c>
       <c r="K6">
-        <v>0.7661872346310759</v>
+        <v>0.7848452413251152</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7865337188905528</v>
+        <v>0.7806440160700276</v>
       </c>
       <c r="C7">
-        <v>0.09293628814066324</v>
+        <v>0.08442974710271756</v>
       </c>
       <c r="D7">
-        <v>0.02112372206365265</v>
+        <v>0.0264509524318246</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.908267919624421</v>
+        <v>4.998320096028749</v>
       </c>
       <c r="G7">
-        <v>0.0008613473306338911</v>
+        <v>0.002606555924952668</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3421980893012915</v>
+        <v>0.3419512197178989</v>
       </c>
       <c r="K7">
-        <v>0.8036292641167506</v>
+        <v>0.7904986579299589</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9481699879835048</v>
+        <v>0.8080415041688411</v>
       </c>
       <c r="C8">
-        <v>0.114969052618207</v>
+        <v>0.08690204503545829</v>
       </c>
       <c r="D8">
-        <v>0.02753738821466989</v>
+        <v>0.02402228025978204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.783194047223475</v>
+        <v>5.248206846564301</v>
       </c>
       <c r="G8">
-        <v>0.0008497494318985832</v>
+        <v>0.002599800333403107</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4046312204623916</v>
+        <v>0.354800258083344</v>
       </c>
       <c r="K8">
-        <v>0.9738121902021248</v>
+        <v>0.8173153040717978</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.285716423865949</v>
+        <v>0.8679022941581138</v>
       </c>
       <c r="C9">
-        <v>0.1618650809582789</v>
+        <v>0.09275098334676102</v>
       </c>
       <c r="D9">
-        <v>0.04203015843143199</v>
+        <v>0.02007095262924885</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.578008285720728</v>
+        <v>5.74421240004142</v>
       </c>
       <c r="G9">
-        <v>0.000827933473597591</v>
+        <v>0.002587834486546606</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5349350801852353</v>
+        <v>0.3818053132525563</v>
       </c>
       <c r="K9">
-        <v>1.330532510397745</v>
+        <v>0.8766761802441749</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.551292410747095</v>
+        <v>0.9156719908282014</v>
       </c>
       <c r="C10">
-        <v>0.1995634190174371</v>
+        <v>0.09767118496179705</v>
       </c>
       <c r="D10">
-        <v>0.05442654585624496</v>
+        <v>0.01767483475182452</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.967298594840031</v>
+        <v>6.112648711497542</v>
       </c>
       <c r="G10">
-        <v>0.0008123102743506493</v>
+        <v>0.002579815125751463</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6374513718345014</v>
+        <v>0.4027733969781053</v>
       </c>
       <c r="K10">
-        <v>1.612368231165874</v>
+        <v>0.9244789847553534</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.677255423739751</v>
+        <v>0.9382382181856315</v>
       </c>
       <c r="C11">
-        <v>0.2176836822641093</v>
+        <v>0.1000476850910132</v>
       </c>
       <c r="D11">
-        <v>0.06060107025730588</v>
+        <v>0.01669754942705737</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.62053696262666</v>
+        <v>6.281217239171383</v>
       </c>
       <c r="G11">
-        <v>0.0008052489996783358</v>
+        <v>0.002576332498122085</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6860857436110166</v>
+        <v>0.4125628487503974</v>
       </c>
       <c r="K11">
-        <v>1.746389790289555</v>
+        <v>0.9471496001464459</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.725825659544256</v>
+        <v>0.9469044504580211</v>
       </c>
       <c r="C12">
-        <v>0.2247115018307966</v>
+        <v>0.100967715576715</v>
       </c>
       <c r="D12">
-        <v>0.06303171725811296</v>
+        <v>0.01634391341299235</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.87153011656488</v>
+        <v>6.345194666601117</v>
       </c>
       <c r="G12">
-        <v>0.000802577595759106</v>
+        <v>0.002575037349305884</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.70484149879006</v>
+        <v>0.4163063700458736</v>
       </c>
       <c r="K12">
-        <v>1.798125906162994</v>
+        <v>0.9558684041971048</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.71532417781907</v>
+        <v>0.9450326335681609</v>
       </c>
       <c r="C13">
-        <v>0.2231900821276014</v>
+        <v>0.1007686730164892</v>
       </c>
       <c r="D13">
-        <v>0.06250384626311245</v>
+        <v>0.01641934032796577</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.81730297804444</v>
+        <v>6.331409483159689</v>
       </c>
       <c r="G13">
-        <v>0.0008031528879551428</v>
+        <v>0.002575315233248162</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7007861295467848</v>
+        <v>0.415498507678322</v>
       </c>
       <c r="K13">
-        <v>1.786937173423098</v>
+        <v>0.9539846817962143</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.681233059025715</v>
+        <v>0.9389487671638506</v>
       </c>
       <c r="C14">
-        <v>0.2182583702689698</v>
+        <v>0.1001229724266324</v>
       </c>
       <c r="D14">
-        <v>0.06079908958841784</v>
+        <v>0.01666812474489099</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.64111007750898</v>
+        <v>6.286477779653183</v>
       </c>
       <c r="G14">
-        <v>0.000805029196089934</v>
+        <v>0.00257622547260934</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6876216739696162</v>
+        <v>0.412870097414114</v>
       </c>
       <c r="K14">
-        <v>1.750625472985803</v>
+        <v>0.9478642117069569</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.660468860920361</v>
+        <v>0.9352379893311991</v>
       </c>
       <c r="C15">
-        <v>0.2152600384777372</v>
+        <v>0.099730086512551</v>
       </c>
       <c r="D15">
-        <v>0.05976742478252461</v>
+        <v>0.01682266037976632</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.53367743180382</v>
+        <v>6.258974753054417</v>
       </c>
       <c r="G15">
-        <v>0.0008061786907530611</v>
+        <v>0.002576786095385359</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6796038725670428</v>
+        <v>0.411264880907666</v>
       </c>
       <c r="K15">
-        <v>1.728516609737397</v>
+        <v>0.9441327174658056</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.543174766288388</v>
+        <v>0.9142141110467605</v>
       </c>
       <c r="C16">
-        <v>0.1984009228359156</v>
+        <v>0.0975186760431086</v>
       </c>
       <c r="D16">
-        <v>0.05403506856099227</v>
+        <v>0.01774099060432555</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.925082365688127</v>
+        <v>6.101652241529081</v>
       </c>
       <c r="G16">
-        <v>0.0008127723347080134</v>
+        <v>0.002580046040210704</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6343174564796783</v>
+        <v>0.4021387156297038</v>
       </c>
       <c r="K16">
-        <v>1.603738822355353</v>
+        <v>0.9230160972324768</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.472624584316208</v>
+        <v>0.9015311677117666</v>
       </c>
       <c r="C17">
-        <v>0.1883246476037215</v>
+        <v>0.09619761641198465</v>
       </c>
       <c r="D17">
-        <v>0.05066584755675763</v>
+        <v>0.01833339075895246</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.557551069032996</v>
+        <v>6.005390967907175</v>
       </c>
       <c r="G17">
-        <v>0.0008168263550583088</v>
+        <v>0.002582088178455164</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6070820085209903</v>
+        <v>0.3966046547466107</v>
       </c>
       <c r="K17">
-        <v>1.528779790060838</v>
+        <v>0.9102992776828671</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.432522004833572</v>
+        <v>0.8943148747748637</v>
       </c>
       <c r="C18">
-        <v>0.182618637713901</v>
+        <v>0.09545077972596516</v>
       </c>
       <c r="D18">
-        <v>0.0487772888696334</v>
+        <v>0.01868471943347849</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.348117630798811</v>
+        <v>5.950114531307889</v>
       </c>
       <c r="G18">
-        <v>0.0008191627039752339</v>
+        <v>0.002583278340825021</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5916015701591704</v>
+        <v>0.3934452081275737</v>
       </c>
       <c r="K18">
-        <v>1.486202344708175</v>
+        <v>0.9030718959284627</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.419022062670024</v>
+        <v>0.8918850394984474</v>
       </c>
       <c r="C19">
-        <v>0.1807013305063947</v>
+        <v>0.0952001401865914</v>
       </c>
       <c r="D19">
-        <v>0.04814589425078175</v>
+        <v>0.01880548611133825</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.27752775295329</v>
+        <v>5.931414259586319</v>
       </c>
       <c r="G19">
-        <v>0.0008199546527335274</v>
+        <v>0.00258368398937045</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5863904318581774</v>
+        <v>0.3923795154714185</v>
       </c>
       <c r="K19">
-        <v>1.471874398702795</v>
+        <v>0.9006397422197665</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.480084624549448</v>
+        <v>0.9028731485234402</v>
       </c>
       <c r="C20">
-        <v>0.189387833130013</v>
+        <v>0.09633689825975011</v>
       </c>
       <c r="D20">
-        <v>0.05101929708041908</v>
+        <v>0.01826923046142781</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.596468586234437</v>
+        <v>6.015628739196188</v>
       </c>
       <c r="G20">
-        <v>0.0008163943506342957</v>
+        <v>0.002581869177981701</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6099618072720006</v>
+        <v>0.3971913198605392</v>
       </c>
       <c r="K20">
-        <v>1.536702719548686</v>
+        <v>0.9116439943168189</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.691221679379993</v>
+        <v>0.9407324592284567</v>
       </c>
       <c r="C21">
-        <v>0.2197021945766267</v>
+        <v>0.1003120830366129</v>
       </c>
       <c r="D21">
-        <v>0.06129717165887172</v>
+        <v>0.0165946026727628</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.6927588231747</v>
+        <v>6.299671353448275</v>
       </c>
       <c r="G21">
-        <v>0.0008044780446975535</v>
+        <v>0.002575957472558676</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.691478744025062</v>
+        <v>0.4136411324132467</v>
       </c>
       <c r="K21">
-        <v>1.761263061934017</v>
+        <v>0.9496582996071936</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.834362894046279</v>
+        <v>0.9661807158058195</v>
       </c>
       <c r="C22">
-        <v>0.2404978872497026</v>
+        <v>0.1030273671524498</v>
       </c>
       <c r="D22">
-        <v>0.06856257456262682</v>
+        <v>0.01559607550213826</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.43071190582521</v>
+        <v>6.486152608199802</v>
       </c>
       <c r="G22">
-        <v>0.0007967025747777938</v>
+        <v>0.002572231595883238</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7467605223256868</v>
+        <v>0.4246047836553828</v>
       </c>
       <c r="K22">
-        <v>1.913854650899225</v>
+        <v>0.975283968681623</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.757446085643807</v>
+        <v>0.9525337437850965</v>
       </c>
       <c r="C23">
-        <v>0.2292989487329748</v>
+        <v>0.1015673654829783</v>
       </c>
       <c r="D23">
-        <v>0.06462891973797014</v>
+        <v>0.01612015247558318</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.03467688660442</v>
+        <v>6.386545109442807</v>
       </c>
       <c r="G23">
-        <v>0.0008008528379761286</v>
+        <v>0.002574207607138729</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7170528981829847</v>
+        <v>0.4187336825333148</v>
       </c>
       <c r="K23">
-        <v>1.831824814025708</v>
+        <v>0.961535277690956</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.476710524416006</v>
+        <v>0.9022662045107381</v>
       </c>
       <c r="C24">
-        <v>0.1889068979862998</v>
+        <v>0.09627388952547733</v>
       </c>
       <c r="D24">
-        <v>0.05085935277317688</v>
+        <v>0.0182982038664008</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.578868209080412</v>
+        <v>6.011000039336693</v>
       </c>
       <c r="G24">
-        <v>0.0008165896417584387</v>
+        <v>0.00258196813787867</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6086593009061545</v>
+        <v>0.3969260195717368</v>
       </c>
       <c r="K24">
-        <v>1.53311916219161</v>
+        <v>0.9110357873300643</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.191716981820406</v>
+        <v>0.8510465111224335</v>
       </c>
       <c r="C25">
-        <v>0.148688967961462</v>
+        <v>0.09106023468827118</v>
       </c>
       <c r="D25">
-        <v>0.0378492423258141</v>
+        <v>0.02105177188302321</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.081847766463397</v>
+        <v>5.609351067799679</v>
       </c>
       <c r="G25">
-        <v>0.0008337513830566391</v>
+        <v>0.002590935318360291</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4986523729851342</v>
+        <v>0.3743035820890128</v>
       </c>
       <c r="K25">
-        <v>1.231021331645536</v>
+        <v>0.8598861139328164</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_126/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8158781678468188</v>
+        <v>0.9931926654898575</v>
       </c>
       <c r="C2">
-        <v>0.08763917035813051</v>
+        <v>0.1211561920837738</v>
       </c>
       <c r="D2">
-        <v>0.02341868214435827</v>
+        <v>0.02938592127970274</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.316304375184131</v>
+        <v>7.02486796392725</v>
       </c>
       <c r="G2">
-        <v>0.002598057009659271</v>
+        <v>0.0008466750594874667</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3584031481197911</v>
+        <v>0.422015286941587</v>
       </c>
       <c r="K2">
-        <v>0.825037446692221</v>
+        <v>1.021291323431086</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7936140968020027</v>
+        <v>0.8640517900676912</v>
       </c>
       <c r="C3">
-        <v>0.08557691794138123</v>
+        <v>0.1034672680710571</v>
       </c>
       <c r="D3">
-        <v>0.0252304738944904</v>
+        <v>0.02415563936095033</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.119249388615117</v>
+        <v>6.3293956003331</v>
       </c>
       <c r="G3">
-        <v>0.002603210553398778</v>
+        <v>0.000855665841442421</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3480904429340086</v>
+        <v>0.372145232565444</v>
       </c>
       <c r="K3">
-        <v>0.8031537122003272</v>
+        <v>0.8851919471119345</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7807130965191504</v>
+        <v>0.7869527450349949</v>
       </c>
       <c r="C4">
-        <v>0.08443572359462337</v>
+        <v>0.09299303398599079</v>
       </c>
       <c r="D4">
-        <v>0.026444044525892</v>
+        <v>0.02113989012539186</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.998979400218985</v>
+        <v>5.910552682106129</v>
       </c>
       <c r="G4">
-        <v>0.002606537255431958</v>
+        <v>0.000861315954333664</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3419842447547836</v>
+        <v>0.3423600018735442</v>
       </c>
       <c r="K4">
-        <v>0.7905658300099105</v>
+        <v>0.8040698771326902</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7756486923273656</v>
+        <v>0.7560233745214191</v>
       </c>
       <c r="C5">
-        <v>0.08400194103980141</v>
+        <v>0.08880980637606228</v>
       </c>
       <c r="D5">
-        <v>0.02696381442510187</v>
+        <v>0.01995300834577662</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.95014523396469</v>
+        <v>5.741646661857089</v>
       </c>
       <c r="G5">
-        <v>0.00260793389967741</v>
+        <v>0.0008636530733890538</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3395523947929178</v>
+        <v>0.3304077307270745</v>
       </c>
       <c r="K5">
-        <v>0.7856488725406052</v>
+        <v>0.7715553758477824</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7748193836757764</v>
+        <v>0.7509153954246131</v>
       </c>
       <c r="C6">
-        <v>0.08393179486284907</v>
+        <v>0.08811999148532834</v>
       </c>
       <c r="D6">
-        <v>0.02705163988167136</v>
+        <v>0.0197582719685645</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.942046896757461</v>
+        <v>5.713699451911879</v>
       </c>
       <c r="G6">
-        <v>0.002608168290938462</v>
+        <v>0.0008640432994131376</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3391519898444955</v>
+        <v>0.3284335905533169</v>
       </c>
       <c r="K6">
-        <v>0.7848452413251152</v>
+        <v>0.7661872346310474</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7806440160700276</v>
+        <v>0.7865337188904107</v>
       </c>
       <c r="C7">
-        <v>0.08442974710271756</v>
+        <v>0.0929362881400948</v>
       </c>
       <c r="D7">
-        <v>0.0264509524318246</v>
+        <v>0.02112372206381785</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.998320096028749</v>
+        <v>5.908267919624421</v>
       </c>
       <c r="G7">
-        <v>0.002606555924952668</v>
+        <v>0.0008613473305479024</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3419512197178989</v>
+        <v>0.3421980893012631</v>
       </c>
       <c r="K7">
-        <v>0.7904986579299589</v>
+        <v>0.8036292641167222</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8080415041688411</v>
+        <v>0.9481699879835617</v>
       </c>
       <c r="C8">
-        <v>0.08690204503545829</v>
+        <v>0.1149690526181217</v>
       </c>
       <c r="D8">
-        <v>0.02402228025978204</v>
+        <v>0.02753738821454732</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5.248206846564301</v>
+        <v>6.783194047223645</v>
       </c>
       <c r="G8">
-        <v>0.002599800333403107</v>
+        <v>0.0008497494318746799</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.354800258083344</v>
+        <v>0.4046312204624485</v>
       </c>
       <c r="K8">
-        <v>0.8173153040717978</v>
+        <v>0.9738121902022954</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8679022941581138</v>
+        <v>1.285716423865978</v>
       </c>
       <c r="C9">
-        <v>0.09275098334676102</v>
+        <v>0.1618650809577815</v>
       </c>
       <c r="D9">
-        <v>0.02007095262924885</v>
+        <v>0.04203015843180857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5.74421240004142</v>
+        <v>8.57800828572087</v>
       </c>
       <c r="G9">
-        <v>0.002587834486546606</v>
+        <v>0.0008279334735819633</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3818053132525563</v>
+        <v>0.5349350801851926</v>
       </c>
       <c r="K9">
-        <v>0.8766761802441749</v>
+        <v>1.33053251039766</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9156719908282014</v>
+        <v>1.551292410746953</v>
       </c>
       <c r="C10">
-        <v>0.09767118496179705</v>
+        <v>0.1995634190178208</v>
       </c>
       <c r="D10">
-        <v>0.01767483475182452</v>
+        <v>0.05442654585641904</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6.112648711497542</v>
+        <v>9.967298594840116</v>
       </c>
       <c r="G10">
-        <v>0.002579815125751463</v>
+        <v>0.0008123102743417116</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4027733969781053</v>
+        <v>0.6374513718343593</v>
       </c>
       <c r="K10">
-        <v>0.9244789847553534</v>
+        <v>1.612368231166016</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9382382181856315</v>
+        <v>1.677255423739666</v>
       </c>
       <c r="C11">
-        <v>0.1000476850910132</v>
+        <v>0.2176836822650188</v>
       </c>
       <c r="D11">
-        <v>0.01669754942705737</v>
+        <v>0.06060107025749772</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6.281217239171383</v>
+        <v>10.6205369626266</v>
       </c>
       <c r="G11">
-        <v>0.002576332498122085</v>
+        <v>0.000805248999792324</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4125628487503974</v>
+        <v>0.6860857436110734</v>
       </c>
       <c r="K11">
-        <v>0.9471496001464459</v>
+        <v>1.746389790289498</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9469044504580211</v>
+        <v>1.725825659544853</v>
       </c>
       <c r="C12">
-        <v>0.100967715576715</v>
+        <v>0.2247115018311945</v>
       </c>
       <c r="D12">
-        <v>0.01634391341299235</v>
+        <v>0.06303171725826928</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6.345194666601117</v>
+        <v>10.87153011656505</v>
       </c>
       <c r="G12">
-        <v>0.002575037349305884</v>
+        <v>0.0008025775958629887</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4163063700458736</v>
+        <v>0.7048414987901168</v>
       </c>
       <c r="K12">
-        <v>0.9558684041971048</v>
+        <v>1.798125906163165</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9450326335681609</v>
+        <v>1.71532417781907</v>
       </c>
       <c r="C13">
-        <v>0.1007686730164892</v>
+        <v>0.2231900821285677</v>
       </c>
       <c r="D13">
-        <v>0.01641934032796577</v>
+        <v>0.06250384626296679</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.331409483159689</v>
+        <v>10.81730297804432</v>
       </c>
       <c r="G13">
-        <v>0.002575315233248162</v>
+        <v>0.0008031528877418607</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.415498507678322</v>
+        <v>0.7007861295468558</v>
       </c>
       <c r="K13">
-        <v>0.9539846817962143</v>
+        <v>1.786937173422928</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9389487671638506</v>
+        <v>1.681233059025715</v>
       </c>
       <c r="C14">
-        <v>0.1001229724266324</v>
+        <v>0.218258370268984</v>
       </c>
       <c r="D14">
-        <v>0.01666812474489099</v>
+        <v>0.06079908958791336</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>6.286477779653183</v>
+        <v>10.64111007750898</v>
       </c>
       <c r="G14">
-        <v>0.00257622547260934</v>
+        <v>0.0008050291959673478</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.412870097414114</v>
+        <v>0.6876216739698009</v>
       </c>
       <c r="K14">
-        <v>0.9478642117069569</v>
+        <v>1.750625472985945</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9352379893311991</v>
+        <v>1.660468860920503</v>
       </c>
       <c r="C15">
-        <v>0.099730086512551</v>
+        <v>0.2152600384772398</v>
       </c>
       <c r="D15">
-        <v>0.01682266037976632</v>
+        <v>0.05976742478246422</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6.258974753054417</v>
+        <v>10.53367743180377</v>
       </c>
       <c r="G15">
-        <v>0.002576786095385359</v>
+        <v>0.0008061786905131761</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.411264880907666</v>
+        <v>0.679603872566986</v>
       </c>
       <c r="K15">
-        <v>0.9441327174658056</v>
+        <v>1.728516609737454</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9142141110467605</v>
+        <v>1.543174766288416</v>
       </c>
       <c r="C16">
-        <v>0.0975186760431086</v>
+        <v>0.1984009228363135</v>
       </c>
       <c r="D16">
-        <v>0.01774099060432555</v>
+        <v>0.05403506856046825</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6.101652241529081</v>
+        <v>9.925082365688354</v>
       </c>
       <c r="G16">
-        <v>0.002580046040210704</v>
+        <v>0.000812772334466212</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4021387156297038</v>
+        <v>0.6343174564796499</v>
       </c>
       <c r="K16">
-        <v>0.9230160972324768</v>
+        <v>1.603738822355268</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9015311677117666</v>
+        <v>1.472624584315952</v>
       </c>
       <c r="C17">
-        <v>0.09619761641198465</v>
+        <v>0.1883246476036788</v>
       </c>
       <c r="D17">
-        <v>0.01833339075895246</v>
+        <v>0.05066584755671677</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.005390967907175</v>
+        <v>9.557551069033025</v>
       </c>
       <c r="G17">
-        <v>0.002582088178455164</v>
+        <v>0.0008168263551625154</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3966046547466107</v>
+        <v>0.6070820085210187</v>
       </c>
       <c r="K17">
-        <v>0.9102992776828671</v>
+        <v>1.528779790060725</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8943148747748637</v>
+        <v>1.432522004833544</v>
       </c>
       <c r="C18">
-        <v>0.09545077972596516</v>
+        <v>0.182618637714441</v>
       </c>
       <c r="D18">
-        <v>0.01868471943347849</v>
+        <v>0.04877728886971688</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.950114531307889</v>
+        <v>9.348117630798669</v>
       </c>
       <c r="G18">
-        <v>0.002583278340825021</v>
+        <v>0.0008191627039908908</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3934452081275737</v>
+        <v>0.5916015701589998</v>
       </c>
       <c r="K18">
-        <v>0.9030718959284627</v>
+        <v>1.486202344708289</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8918850394984474</v>
+        <v>1.419022062669882</v>
       </c>
       <c r="C19">
-        <v>0.0952001401865914</v>
+        <v>0.180701330506821</v>
       </c>
       <c r="D19">
-        <v>0.01880548611133825</v>
+        <v>0.04814589425095583</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.931414259586319</v>
+        <v>9.277527752953432</v>
       </c>
       <c r="G19">
-        <v>0.00258368398937045</v>
+        <v>0.0008199546527223646</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3923795154714185</v>
+        <v>0.5863904318581632</v>
       </c>
       <c r="K19">
-        <v>0.9006397422197665</v>
+        <v>1.47187439870288</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9028731485234402</v>
+        <v>1.480084624549335</v>
       </c>
       <c r="C20">
-        <v>0.09633689825975011</v>
+        <v>0.1893878331309224</v>
       </c>
       <c r="D20">
-        <v>0.01826923046142781</v>
+        <v>0.05101929708043507</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6.015628739196188</v>
+        <v>9.596468586234437</v>
       </c>
       <c r="G20">
-        <v>0.002581869177981701</v>
+        <v>0.000816394350633411</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3971913198605392</v>
+        <v>0.6099618072717732</v>
       </c>
       <c r="K20">
-        <v>0.9116439943168189</v>
+        <v>1.5367027195486</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9407324592284567</v>
+        <v>1.69122167937968</v>
       </c>
       <c r="C21">
-        <v>0.1003120830366129</v>
+        <v>0.2197021945774793</v>
       </c>
       <c r="D21">
-        <v>0.0165946026727628</v>
+        <v>0.06129717165902093</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6.299671353448275</v>
+        <v>10.69275882317476</v>
       </c>
       <c r="G21">
-        <v>0.002575957472558676</v>
+        <v>0.0008044780446873474</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4136411324132467</v>
+        <v>0.6914787440250336</v>
       </c>
       <c r="K21">
-        <v>0.9496582996071936</v>
+        <v>1.761263061933818</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9661807158058195</v>
+        <v>1.834362894046052</v>
       </c>
       <c r="C22">
-        <v>0.1030273671524498</v>
+        <v>0.2404978872501715</v>
       </c>
       <c r="D22">
-        <v>0.01559607550213826</v>
+        <v>0.06856257456263037</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>6.486152608199802</v>
+        <v>11.43071190582509</v>
       </c>
       <c r="G22">
-        <v>0.002572231595883238</v>
+        <v>0.0007967025747795281</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4246047836553828</v>
+        <v>0.746760522325701</v>
       </c>
       <c r="K22">
-        <v>0.975283968681623</v>
+        <v>1.913854650899225</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9525337437850965</v>
+        <v>1.757446085643835</v>
       </c>
       <c r="C23">
-        <v>0.1015673654829783</v>
+        <v>0.2292989487329606</v>
       </c>
       <c r="D23">
-        <v>0.01612015247558318</v>
+        <v>0.06462891973798079</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>6.386545109442807</v>
+        <v>11.0346768866043</v>
       </c>
       <c r="G23">
-        <v>0.002574207607138729</v>
+        <v>0.0008008528379739098</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4187336825333148</v>
+        <v>0.7170528981829847</v>
       </c>
       <c r="K23">
-        <v>0.961535277690956</v>
+        <v>1.831824814025424</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9022662045107381</v>
+        <v>1.476710524416262</v>
       </c>
       <c r="C24">
-        <v>0.09627388952547733</v>
+        <v>0.1889068979858308</v>
       </c>
       <c r="D24">
-        <v>0.0182982038664008</v>
+        <v>0.05085935277340958</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6.011000039336693</v>
+        <v>9.578868209080468</v>
       </c>
       <c r="G24">
-        <v>0.00258196813787867</v>
+        <v>0.0008165896419881661</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3969260195717368</v>
+        <v>0.6086593009060692</v>
       </c>
       <c r="K24">
-        <v>0.9110357873300643</v>
+        <v>1.533119162191724</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8510465111224335</v>
+        <v>1.191716981820463</v>
       </c>
       <c r="C25">
-        <v>0.09106023468827118</v>
+        <v>0.1486889679623573</v>
       </c>
       <c r="D25">
-        <v>0.02105177188302321</v>
+        <v>0.03784924232586206</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.609351067799679</v>
+        <v>8.081847766463341</v>
       </c>
       <c r="G25">
-        <v>0.002590935318360291</v>
+        <v>0.0008337513830691812</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3743035820890128</v>
+        <v>0.4986523729848642</v>
       </c>
       <c r="K25">
-        <v>0.8598861139328164</v>
+        <v>1.231021331645451</v>
       </c>
       <c r="L25">
         <v>0</v>
